--- a/FitnessData/dynamic9/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic9/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>173.63</v>
+        <v>159.02</v>
       </c>
       <c r="B2" t="n">
-        <v>180.89</v>
+        <v>156.47</v>
       </c>
       <c r="C2" t="n">
-        <v>165.01</v>
+        <v>161.76</v>
       </c>
       <c r="D2" t="n">
-        <v>169.25</v>
+        <v>157.22</v>
       </c>
       <c r="E2" t="n">
-        <v>169.24</v>
+        <v>173.53</v>
       </c>
       <c r="F2" t="n">
-        <v>177.59</v>
+        <v>167.36</v>
       </c>
       <c r="G2" t="n">
-        <v>167.33</v>
+        <v>167.26</v>
       </c>
       <c r="H2" t="n">
-        <v>174.49</v>
+        <v>173.76</v>
       </c>
       <c r="I2" t="n">
-        <v>169.1</v>
+        <v>156.36</v>
       </c>
       <c r="J2" t="n">
-        <v>169.93</v>
+        <v>160.17</v>
       </c>
       <c r="K2" t="n">
-        <v>185.39</v>
+        <v>168.03</v>
       </c>
       <c r="L2" t="n">
-        <v>160.43</v>
+        <v>171.29</v>
       </c>
       <c r="M2" t="n">
-        <v>171.72</v>
+        <v>167.59</v>
       </c>
       <c r="N2" t="n">
-        <v>169.7</v>
+        <v>165.9</v>
       </c>
       <c r="O2" t="n">
-        <v>169.98</v>
+        <v>162.85</v>
       </c>
       <c r="P2" t="n">
-        <v>185.71</v>
+        <v>161.49</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.91</v>
+        <v>164.82</v>
       </c>
       <c r="R2" t="n">
-        <v>164.93</v>
+        <v>158.11</v>
       </c>
       <c r="S2" t="n">
-        <v>168.32</v>
+        <v>167.68</v>
       </c>
       <c r="T2" t="n">
-        <v>162.18</v>
+        <v>157.18</v>
       </c>
       <c r="U2" t="n">
-        <v>160.43</v>
+        <v>156.36</v>
       </c>
       <c r="V2" t="n">
-        <v>171.3865</v>
+        <v>163.8925</v>
       </c>
       <c r="W2" t="n">
-        <v>6.811411689989549</v>
+        <v>5.629879754722258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>347.7</v>
+        <v>356.52</v>
       </c>
       <c r="B3" t="n">
-        <v>358.18</v>
+        <v>325.6</v>
       </c>
       <c r="C3" t="n">
-        <v>342.46</v>
+        <v>347.24</v>
       </c>
       <c r="D3" t="n">
-        <v>356.82</v>
+        <v>327.32</v>
       </c>
       <c r="E3" t="n">
-        <v>328.46</v>
+        <v>325.22</v>
       </c>
       <c r="F3" t="n">
-        <v>317.94</v>
+        <v>342.42</v>
       </c>
       <c r="G3" t="n">
-        <v>377.78</v>
+        <v>329.68</v>
       </c>
       <c r="H3" t="n">
-        <v>353.48</v>
+        <v>349.84</v>
       </c>
       <c r="I3" t="n">
-        <v>337.46</v>
+        <v>314.64</v>
       </c>
       <c r="J3" t="n">
-        <v>397.84</v>
+        <v>336.78</v>
       </c>
       <c r="K3" t="n">
-        <v>351.9</v>
+        <v>333.96</v>
       </c>
       <c r="L3" t="n">
-        <v>351.26</v>
+        <v>342.42</v>
       </c>
       <c r="M3" t="n">
-        <v>360.16</v>
+        <v>342.02</v>
       </c>
       <c r="N3" t="n">
-        <v>354.4</v>
+        <v>369.52</v>
       </c>
       <c r="O3" t="n">
-        <v>359.9</v>
+        <v>332.04</v>
       </c>
       <c r="P3" t="n">
-        <v>349.8</v>
+        <v>317.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>328.4</v>
+        <v>363.1</v>
       </c>
       <c r="R3" t="n">
-        <v>356.3</v>
+        <v>319.58</v>
       </c>
       <c r="S3" t="n">
-        <v>368.4</v>
+        <v>330.56</v>
       </c>
       <c r="T3" t="n">
-        <v>317.04</v>
+        <v>351.98</v>
       </c>
       <c r="U3" t="n">
-        <v>317.04</v>
+        <v>314.64</v>
       </c>
       <c r="V3" t="n">
-        <v>350.784</v>
+        <v>337.888</v>
       </c>
       <c r="W3" t="n">
-        <v>19.25158815048227</v>
+        <v>15.15568943021937</v>
       </c>
     </row>
   </sheetData>
